--- a/biology/Microbiologie/Globigerinidae/Globigerinidae.xlsx
+++ b/biology/Microbiologie/Globigerinidae/Globigerinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Globigerinidae sont une famille de foraminifères planctoniques, de l'ordre des Rotaliida, qui existent depuis le Jurassique moyen, il y a environ 170 Ma (millions d'années).
 </t>
@@ -511,12 +523,14 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les globigérines sont des foraminifères (organismes unicellulaires) planctoniques pélagiques.
-Ils se construisent une puis plusieurs loges sphériques ou sub-sphériques selon les genres[1], d’où émergent, par une multitudes de petits trous (les « foramens »), de longues expansions cytoplasmiques (les pseudopodes) formant des sortes de tentacules qui permettent la capture des proies (essentiellement du phytoplancton). Chacune de ces loges mesure généralement moins d'un millimètre de diamètre. Certains genres portent des ornementations telles que des épines. Certains comme les Orbulina privilégient une forme très ronde, alors que d'autres sont des agglutinats de loges très irrégulières (arrangement le plus souvent trochospiralé ou streptospiralé)[1]. 
+Ils se construisent une puis plusieurs loges sphériques ou sub-sphériques selon les genres, d’où émergent, par une multitudes de petits trous (les « foramens »), de longues expansions cytoplasmiques (les pseudopodes) formant des sortes de tentacules qui permettent la capture des proies (essentiellement du phytoplancton). Chacune de ces loges mesure généralement moins d'un millimètre de diamètre. Certains genres portent des ornementations telles que des épines. Certains comme les Orbulina privilégient une forme très ronde, alors que d'autres sont des agglutinats de loges très irrégulières (arrangement le plus souvent trochospiralé ou streptospiralé). 
 Les foraminifères de cette famille sont relativement bien adaptés au mode de vie pélagique : test fin et léger, présence de graisses assurant la régulation de la flottabilité, forme arrondie permettant de faire rayonner les pseudopodes à 360°. Tout leur cycle biologique se déroule en haute mer où ils se développent généralement à faible profondeur avant de descendre progressivement, parfois jusqu'à plusieurs centaines de mètres. 
-Cette famille est apparue au Jurassique moyen[2]. Les globigérines constituent d'excellents fossiles stratigraphiques pour l'étude des paléoenvironnements, en s'accumulant et en se conservant (grâce à leur test calcifié) dans les roches sédimentaires.
+Cette famille est apparue au Jurassique moyen. Les globigérines constituent d'excellents fossiles stratigraphiques pour l'étude des paléoenvironnements, en s'accumulant et en se conservant (grâce à leur test calcifié) dans les roches sédimentaires.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (31 mai 2016)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (31 mai 2016) :
 sous-famille des Globigerininae Carpenter &amp; al., 1862
 genre Beella Banner &amp; Blow, 1960
 genre Globigerina d'Orbigny, 1826
